--- a/robe-convert/src/test/resources/sampleWithTitle.xlsx
+++ b/robe-convert/src/test/resources/sampleWithTitle.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>Seray</t>
   </si>
@@ -85,6 +85,15 @@
   </si>
   <si>
     <t>date2</t>
+  </si>
+  <si>
+    <t>sampleEnum</t>
+  </si>
+  <si>
+    <t>SAMPLE1</t>
+  </si>
+  <si>
+    <t>SAMPLE2</t>
   </si>
 </sst>
 </file>
@@ -538,10 +547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="H1" sqref="H1:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -551,7 +560,7 @@
     <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -573,8 +582,11 @@
       <c r="G1" t="s">
         <v>21</v>
       </c>
+      <c r="H1" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>1</v>
       </c>
@@ -596,8 +608,11 @@
       <c r="G2" t="s">
         <v>2</v>
       </c>
+      <c r="H2" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>2</v>
       </c>
@@ -619,8 +634,11 @@
       <c r="G3" t="s">
         <v>5</v>
       </c>
+      <c r="H3" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>3</v>
       </c>
@@ -642,8 +660,11 @@
       <c r="G4" t="s">
         <v>8</v>
       </c>
+      <c r="H4" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>4</v>
       </c>
@@ -665,8 +686,11 @@
       <c r="G5" t="s">
         <v>11</v>
       </c>
+      <c r="H5" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>5</v>
       </c>
@@ -687,11 +711,13 @@
       </c>
       <c r="G6" t="s">
         <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/robe-convert/src/test/resources/sampleWithTitle.xlsx
+++ b/robe-convert/src/test/resources/sampleWithTitle.xlsx
@@ -550,13 +550,14 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H6"/>
+      <selection activeCell="F2" sqref="F2:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="6" max="6" width="12.5" customWidth="1"/>
     <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -603,7 +604,7 @@
         <v>111</v>
       </c>
       <c r="F2">
-        <v>1111</v>
+        <v>11111111111</v>
       </c>
       <c r="G2" t="s">
         <v>2</v>
@@ -629,7 +630,7 @@
         <v>112</v>
       </c>
       <c r="F3">
-        <v>1112</v>
+        <v>11111111112</v>
       </c>
       <c r="G3" t="s">
         <v>5</v>
@@ -655,7 +656,7 @@
         <v>113</v>
       </c>
       <c r="F4">
-        <v>1113</v>
+        <v>11111111113</v>
       </c>
       <c r="G4" t="s">
         <v>8</v>
@@ -681,7 +682,7 @@
         <v>114</v>
       </c>
       <c r="F5">
-        <v>1114</v>
+        <v>11111111114</v>
       </c>
       <c r="G5" t="s">
         <v>11</v>
@@ -707,7 +708,7 @@
         <v>115</v>
       </c>
       <c r="F6">
-        <v>1115</v>
+        <v>11111111115</v>
       </c>
       <c r="G6" t="s">
         <v>14</v>
